--- a/fhir/CodeSystem-ehealth-ucum-printsymbol-supplement.xlsx
+++ b/fhir/CodeSystem-ehealth-ucum-printsymbol-supplement.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -217,6 +217,18 @@
   </si>
   <si>
     <t>percent point</t>
+  </si>
+  <si>
+    <t>/d</t>
+  </si>
+  <si>
+    <t>per day</t>
+  </si>
+  <si>
+    <t>/wk</t>
+  </si>
+  <si>
+    <t>per week</t>
   </si>
 </sst>
 </file>
@@ -527,7 +539,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -715,6 +727,30 @@
       </c>
       <c r="D15" s="2"/>
     </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/fhir/CodeSystem-ehealth-ucum-printsymbol-supplement.xlsx
+++ b/fhir/CodeSystem-ehealth-ucum-printsymbol-supplement.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -163,6 +163,24 @@
   </si>
   <si>
     <t>meter</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>centimeter</t>
+  </si>
+  <si>
+    <t>cm2</t>
+  </si>
+  <si>
+    <t>square centimeter</t>
+  </si>
+  <si>
+    <t>cm3</t>
+  </si>
+  <si>
+    <t>cubic centimeter</t>
   </si>
   <si>
     <t>L</t>
@@ -539,7 +557,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -751,6 +769,42 @@
       </c>
       <c r="D17" s="2"/>
     </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/fhir/CodeSystem-ehealth-ucum-printsymbol-supplement.xlsx
+++ b/fhir/CodeSystem-ehealth-ucum-printsymbol-supplement.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.4.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ehealth-ucum-printsymbol-supplement.xlsx
+++ b/fhir/CodeSystem-ehealth-ucum-printsymbol-supplement.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.1</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ehealth-ucum-printsymbol-supplement.xlsx
+++ b/fhir/CodeSystem-ehealth-ucum-printsymbol-supplement.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>3.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ehealth-ucum-printsymbol-supplement.xlsx
+++ b/fhir/CodeSystem-ehealth-ucum-printsymbol-supplement.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ehealth-ucum-printsymbol-supplement.xlsx
+++ b/fhir/CodeSystem-ehealth-ucum-printsymbol-supplement.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ehealth-ucum-printsymbol-supplement.xlsx
+++ b/fhir/CodeSystem-ehealth-ucum-printsymbol-supplement.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ehealth-ucum-printsymbol-supplement.xlsx
+++ b/fhir/CodeSystem-ehealth-ucum-printsymbol-supplement.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ehealth-ucum-printsymbol-supplement.xlsx
+++ b/fhir/CodeSystem-ehealth-ucum-printsymbol-supplement.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.1</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
